--- a/Datasets/Rekapitulasi_Gemini_1.xlsx
+++ b/Datasets/Rekapitulasi_Gemini_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fery\Desktop\Python\MSDA_UBT\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2548BAC2-6047-4E78-B054-3BF1211DBD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CA578B-2E62-49DE-9E7E-F3F2E7E343A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Penilaian" sheetId="1" r:id="rId1"/>
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3671,7 +3671,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -3879,7 +3879,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5528,7 +5528,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -5735,8 +5735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7047,7 +7047,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -7212,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3656861-8987-4F0F-86B8-4AE1562777C1}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8686,7 +8686,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>139</v>

--- a/Datasets/Rekapitulasi_Gemini_1.xlsx
+++ b/Datasets/Rekapitulasi_Gemini_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fery\Desktop\Python\MSDA_UBT\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CA578B-2E62-49DE-9E7E-F3F2E7E343A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB65DC-AF63-402C-879A-9DC61F7EE3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="293">
   <si>
     <t>Nama</t>
   </si>
@@ -1171,6 +1171,9 @@
 Untuk Periode #1 ini lu adalah massa UBT yang **anti absen** dalam acara UBT. Makasihh yak udah rajin-rajin di UBT, semoga waktu dan tenaga yang lu korbanin bisa bermanfaat bagi lu, kita, dan juga UBT.  
 Yok ramein acara UBT yang lain lagi di periode berikutnya !!  
 Ohyaa, lu bisa akses sertifikat lu di [sini ya..](https://drive.google.com/file/d/16RS8nHcw03VUavc7zlTZMZUYlMPiBbur/view?usp=drive_link)</t>
+  </si>
+  <si>
+    <t>10011111001110101111</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1664,6 +1667,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -7212,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3656861-8987-4F0F-86B8-4AE1562777C1}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B63"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7960,8 +7966,8 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2">
-        <v>1.00111110011101E+19</v>
+      <c r="C29" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="D29">
         <v>43.262500000000003</v>

--- a/Datasets/Rekapitulasi_Gemini_1.xlsx
+++ b/Datasets/Rekapitulasi_Gemini_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fery\Desktop\Python\MSDA_UBT\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB65DC-AF63-402C-879A-9DC61F7EE3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCE2E6-A8CF-4764-83AC-05FAD12567B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
